--- a/src/main/resources/productUploadTemplate.xlsx
+++ b/src/main/resources/productUploadTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimir\Desktop\임시\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE57890-4ED4-44F6-8021-68172154DBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C29DA51-6BEF-4476-B0E4-8FF1990AF6FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>품번</t>
   </si>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업체명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홈플러스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스트코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +70,6 @@
   </si>
   <si>
     <t>공정 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,6 +97,10 @@
   </si>
   <si>
     <t>완제품/자재/소모품 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외주생산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -201,6 +189,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -210,14 +278,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,7 +642,7 @@
     <col min="6" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,108 +650,99 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
         <v>500</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="10"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:M4"/>
+    <mergeCell ref="I1:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
